--- a/Q_HyperparSearch.xlsx
+++ b/Q_HyperparSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Learning rate</t>
   </si>
@@ -25,7 +25,10 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>(106509849, 117161517)</t>
+    <t>(105944677, 117387917)</t>
+  </si>
+  <si>
+    <t>(109455936, 121043041)</t>
   </si>
   <si>
     <t>Runtime</t>
@@ -389,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,10 +443,27 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>216.1087729930878</v>
+        <v>109.8026421070099</v>
       </c>
       <c r="E3">
-        <v>65.47293631964459</v>
+        <v>41.84110508463559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4">
+        <v>0.005</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>105.2154169082642</v>
+      </c>
+      <c r="E4">
+        <v>57.7090288480143</v>
       </c>
     </row>
   </sheetData>

--- a/Q_HyperparSearch.xlsx
+++ b/Q_HyperparSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Learning rate</t>
   </si>
@@ -25,10 +25,64 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>(105944677, 117387917)</t>
-  </si>
-  <si>
-    <t>(109455936, 121043041)</t>
+    <t>(106508767, 117160478)</t>
+  </si>
+  <si>
+    <t>(104791355, 114880392)</t>
+  </si>
+  <si>
+    <t>(102130842, 114620835)</t>
+  </si>
+  <si>
+    <t>(105746070, 114595575)</t>
+  </si>
+  <si>
+    <t>(109152678, 119800887)</t>
+  </si>
+  <si>
+    <t>(102475185, 114590954)</t>
+  </si>
+  <si>
+    <t>(106678095, 114618288)</t>
+  </si>
+  <si>
+    <t>(104647394, 114736367)</t>
+  </si>
+  <si>
+    <t>(108261907, 119833732)</t>
+  </si>
+  <si>
+    <t>(106643374, 114584527)</t>
+  </si>
+  <si>
+    <t>(104631407, 114721270)</t>
+  </si>
+  <si>
+    <t>(103018143, 114589968)</t>
+  </si>
+  <si>
+    <t>(111878245, 119819398)</t>
+  </si>
+  <si>
+    <t>(104634786, 114724655)</t>
+  </si>
+  <si>
+    <t>(103032579, 114603508)</t>
+  </si>
+  <si>
+    <t>(106629395, 114571460)</t>
+  </si>
+  <si>
+    <t>(108727884, 120638181)</t>
+  </si>
+  <si>
+    <t>(102504218, 114619283)</t>
+  </si>
+  <si>
+    <t>(106674838, 114615031)</t>
+  </si>
+  <si>
+    <t>(104663138, 114752111)</t>
   </si>
   <si>
     <t>Runtime</t>
@@ -392,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +480,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -443,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>109.8026421070099</v>
+        <v>216.2377359867096</v>
       </c>
       <c r="E3">
-        <v>41.84110508463559</v>
+        <v>58.7080288480143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -460,10 +514,316 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>105.2154169082642</v>
+        <v>205.8030121326447</v>
       </c>
       <c r="E4">
-        <v>57.7090288480143</v>
+        <v>66.46493631964459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>205.4763221740723</v>
+      </c>
+      <c r="E5">
+        <v>57.75602884801418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>203.9279158115387</v>
+      </c>
+      <c r="E6">
+        <v>19.55462637318219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>203.9562537670135</v>
+      </c>
+      <c r="E7">
+        <v>-0.003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>0.4</v>
+      </c>
+      <c r="B8">
+        <v>0.001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>208.4579887390137</v>
+      </c>
+      <c r="E8">
+        <v>58.77902884801414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>0.4</v>
+      </c>
+      <c r="B9">
+        <v>0.005</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>205.6961400508881</v>
+      </c>
+      <c r="E9">
+        <v>57.77602884801414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>203.7171618938446</v>
+      </c>
+      <c r="E10">
+        <v>41.76510508463574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>203.420351266861</v>
+      </c>
+      <c r="E11">
+        <v>31.49852979556215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>204.0757021903992</v>
+      </c>
+      <c r="E12">
+        <v>45.98068871985581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>0.6</v>
+      </c>
+      <c r="B13">
+        <v>0.001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>206.901154756546</v>
+      </c>
+      <c r="E13">
+        <v>58.78202884801413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>0.005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>206.150155544281</v>
+      </c>
+      <c r="E14">
+        <v>58.78302884801413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>0.6</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>204.431412935257</v>
+      </c>
+      <c r="E15">
+        <v>37.21868467060533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>204.170028924942</v>
+      </c>
+      <c r="E16">
+        <v>58.7530288480142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.6</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>205.0542387962341</v>
+      </c>
+      <c r="E17">
+        <v>44.89059214223575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>0.001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>207.0012791156769</v>
+      </c>
+      <c r="E18">
+        <v>66.46993631964457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <v>0.005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>183.8153409957886</v>
+      </c>
+      <c r="E19">
+        <v>66.40383974202452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>0.8</v>
+      </c>
+      <c r="B20">
+        <v>0.05</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>204.4203038215637</v>
+      </c>
+      <c r="E20">
+        <v>57.74802884801419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>0.8</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>204.6875319480896</v>
+      </c>
+      <c r="E21">
+        <v>57.77302884801413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.8</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>204.147087097168</v>
+      </c>
+      <c r="E22">
+        <v>57.76802884801415</v>
       </c>
     </row>
   </sheetData>
